--- a/r5-core-SSNr-DisplayName-Correction/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r5-core-SSNr-DisplayName-Correction/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-27T14:54:38+00:00</t>
+    <t>2024-05-06T14:55:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -397,215 +397,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>URL for the HL7 AT CodeSystem used by the ELGA ValueSet for religion</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-religion</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod-1
-</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].text</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Extension.extension:period</t>
@@ -947,7 +738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK27"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -956,8 +747,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -970,7 +761,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -987,11 +778,11 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1940,9 +1731,11 @@
         <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
@@ -1963,13 +1756,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2020,41 +1813,41 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2066,17 +1859,15 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2113,31 +1904,31 @@
         <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>87</v>
@@ -2148,7 +1939,7 @@
         <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2159,7 +1950,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2168,23 +1959,19 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2220,19 +2007,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2244,18 +2031,18 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2263,7 +2050,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -2278,22 +2065,24 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2335,41 +2124,41 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2381,17 +2170,15 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2428,42 +2215,42 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2471,7 +2258,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -2483,29 +2270,27 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>75</v>
@@ -2547,10 +2332,10 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>81</v>
@@ -2559,18 +2344,18 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2581,7 +2366,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2590,20 +2375,18 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -2652,7 +2435,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2661,1163 +2444,12 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK27" t="s" s="2">
         <v>113</v>
       </c>
     </row>
